--- a/PythonExamples/hello.xlsx
+++ b/PythonExamples/hello.xlsx
@@ -1,41 +1,161 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Alpha" sheetId="1" r:id="rId1"/>
+    <sheet name="Beta" sheetId="2" r:id="rId2"/>
+    <sheet name="Gamma" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
+  <si>
+    <t>Test Plan Name</t>
+  </si>
+  <si>
+    <t>Execution Time</t>
+  </si>
+  <si>
+    <t>Execution Date</t>
+  </si>
+  <si>
+    <t>Execution Status</t>
+  </si>
+  <si>
+    <t>Build User</t>
+  </si>
+  <si>
+    <t>Hello World1</t>
+  </si>
+  <si>
+    <t>00:00:00.218</t>
+  </si>
+  <si>
+    <t>Hello World2</t>
+  </si>
+  <si>
+    <t>00:00:00.923</t>
+  </si>
+  <si>
+    <t>Hello World3</t>
+  </si>
+  <si>
+    <t>00:00:00.396</t>
+  </si>
+  <si>
+    <t>Hello World4</t>
+  </si>
+  <si>
+    <t>00:00:00.255</t>
+  </si>
+  <si>
+    <t>Hello World5</t>
+  </si>
+  <si>
+    <t>00:00:00.305</t>
+  </si>
+  <si>
+    <t>Hello World6</t>
+  </si>
+  <si>
+    <t>00:00:00.295</t>
+  </si>
+  <si>
+    <t>Hello World7</t>
+  </si>
+  <si>
+    <t>00:00:01.649</t>
+  </si>
+  <si>
+    <t>Hello World8</t>
+  </si>
+  <si>
+    <t>00:00:01.758</t>
+  </si>
+  <si>
+    <t>Hello World9</t>
+  </si>
+  <si>
+    <t>00:00:18.762</t>
+  </si>
+  <si>
+    <t>Hello World10</t>
+  </si>
+  <si>
+    <t>00:00:01.860</t>
+  </si>
+  <si>
+    <t>Hello World11</t>
+  </si>
+  <si>
+    <t>00:00:01.571</t>
+  </si>
+  <si>
+    <t>Hello World12</t>
+  </si>
+  <si>
+    <t>00:00:17.679</t>
+  </si>
+  <si>
+    <t>Hello World13</t>
+  </si>
+  <si>
+    <t>00:00:02.358</t>
+  </si>
+  <si>
+    <t>Hello World14</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>Hello World15</t>
+  </si>
+  <si>
+    <t>00:00:08.512</t>
+  </si>
+  <si>
+    <t>2019-05-22</t>
+  </si>
+  <si>
+    <t>K Srinivasulu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,18 +171,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -350,169 +476,524 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="78.7109375"/>
-    <col customWidth="1" max="2" min="2" width="25.5703125"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Test Plan Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Execution Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>00:00:00.218</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>00:00:00.923</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>00:00:00.396</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>00:00:00.255</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>00:00:00.305</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>00:00:00.295</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>00:00:01.649</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>00:00:01.758</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>00:00:18.762</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>00:00:11.309</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>00:00:01.571</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>